--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H2">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I2">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J2">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>173.0354512838338</v>
+        <v>485.6028625906827</v>
       </c>
       <c r="R2">
-        <v>173.0354512838338</v>
+        <v>4370.425763316143</v>
       </c>
       <c r="S2">
-        <v>0.009080878787590729</v>
+        <v>0.01812655849039171</v>
       </c>
       <c r="T2">
-        <v>0.009080878787590729</v>
+        <v>0.02002308093148661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H3">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I3">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J3">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>486.0606843390038</v>
+        <v>1130.417817405511</v>
       </c>
       <c r="R3">
-        <v>486.0606843390038</v>
+        <v>10173.7603566496</v>
       </c>
       <c r="S3">
-        <v>0.02550840377013694</v>
+        <v>0.04219617770880719</v>
       </c>
       <c r="T3">
-        <v>0.02550840377013694</v>
+        <v>0.04661102556840506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H4">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I4">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J4">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>58.61428166475774</v>
+        <v>156.045551670288</v>
       </c>
       <c r="R4">
-        <v>58.61428166475774</v>
+        <v>1404.409965032592</v>
       </c>
       <c r="S4">
-        <v>0.003076070152504611</v>
+        <v>0.005824860266322469</v>
       </c>
       <c r="T4">
-        <v>0.003076070152504611</v>
+        <v>0.006434296316589719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H5">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I5">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J5">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>60.52307944394537</v>
+        <v>130.5069422533707</v>
       </c>
       <c r="R5">
-        <v>60.52307944394537</v>
+        <v>1174.562480280336</v>
       </c>
       <c r="S5">
-        <v>0.003176243620624694</v>
+        <v>0.00487155637744234</v>
       </c>
       <c r="T5">
-        <v>0.003176243620624694</v>
+        <v>0.005381251364374122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H6">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I6">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J6">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N6">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O6">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P6">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q6">
-        <v>124.6277305141513</v>
+        <v>276.062727821846</v>
       </c>
       <c r="R6">
-        <v>124.6277305141513</v>
+        <v>1656.376366931076</v>
       </c>
       <c r="S6">
-        <v>0.006540447671125674</v>
+        <v>0.01030485519830581</v>
       </c>
       <c r="T6">
-        <v>0.006540447671125674</v>
+        <v>0.007588678962687048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H7">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I7">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J7">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N7">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O7">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P7">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q7">
-        <v>2857.411925281816</v>
+        <v>4152.06193141218</v>
       </c>
       <c r="R7">
-        <v>2857.411925281816</v>
+        <v>37368.55738270962</v>
       </c>
       <c r="S7">
-        <v>0.1499566195665747</v>
+        <v>0.1549879526120317</v>
       </c>
       <c r="T7">
-        <v>0.1499566195665747</v>
+        <v>0.1712038344289732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H8">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I8">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J8">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N8">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P8">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q8">
-        <v>8026.537831040801</v>
+        <v>9665.438875708805</v>
       </c>
       <c r="R8">
-        <v>8026.537831040801</v>
+        <v>86988.94988137925</v>
       </c>
       <c r="S8">
-        <v>0.4212316989778766</v>
+        <v>0.3607910014804002</v>
       </c>
       <c r="T8">
-        <v>0.4212316989778766</v>
+        <v>0.3985393821901406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H9">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I9">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J9">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N9">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O9">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P9">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q9">
-        <v>967.9238917693029</v>
+        <v>1334.240064401232</v>
       </c>
       <c r="R9">
-        <v>967.9238917693029</v>
+        <v>12008.16057961109</v>
       </c>
       <c r="S9">
-        <v>0.05079652447839927</v>
+        <v>0.04980444398240452</v>
       </c>
       <c r="T9">
-        <v>0.05079652447839927</v>
+        <v>0.05501531982124352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H10">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I10">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J10">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N10">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O10">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P10">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q10">
-        <v>999.4447246202284</v>
+        <v>1115.876673017011</v>
       </c>
       <c r="R10">
-        <v>999.4447246202284</v>
+        <v>10042.8900571531</v>
       </c>
       <c r="S10">
-        <v>0.05245073383422452</v>
+        <v>0.04165338662460896</v>
       </c>
       <c r="T10">
-        <v>0.05245073383422452</v>
+        <v>0.04601144403098572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H11">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I11">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J11">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N11">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O11">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P11">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q11">
-        <v>2058.033546014828</v>
+        <v>2360.425835951161</v>
       </c>
       <c r="R11">
-        <v>2058.033546014828</v>
+        <v>14162.55501570696</v>
       </c>
       <c r="S11">
-        <v>0.1080053424514761</v>
+        <v>0.08810985328491638</v>
       </c>
       <c r="T11">
-        <v>0.1080053424514761</v>
+        <v>0.06488566575284006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H12">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I12">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J12">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N12">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O12">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P12">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q12">
-        <v>55.12643486621116</v>
+        <v>160.6286293961533</v>
       </c>
       <c r="R12">
-        <v>55.12643486621116</v>
+        <v>1445.65766456538</v>
       </c>
       <c r="S12">
-        <v>0.002893028389835212</v>
+        <v>0.005995937154174208</v>
       </c>
       <c r="T12">
-        <v>0.002893028389835212</v>
+        <v>0.006623272418853033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H13">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I13">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J13">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N13">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P13">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q13">
-        <v>154.8514622722487</v>
+        <v>373.9217344933384</v>
       </c>
       <c r="R13">
-        <v>154.8514622722487</v>
+        <v>3365.295610440045</v>
       </c>
       <c r="S13">
-        <v>0.008126585324234336</v>
+        <v>0.01395773112819427</v>
       </c>
       <c r="T13">
-        <v>0.008126585324234336</v>
+        <v>0.01541808281742534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H14">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I14">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J14">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N14">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O14">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P14">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q14">
-        <v>18.6736091156362</v>
+        <v>51.61704145326</v>
       </c>
       <c r="R14">
-        <v>18.6736091156362</v>
+        <v>464.55337307934</v>
       </c>
       <c r="S14">
-        <v>0.0009799886650267275</v>
+        <v>0.001926758248524055</v>
       </c>
       <c r="T14">
-        <v>0.0009799886650267275</v>
+        <v>0.002128348652947901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H15">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I15">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J15">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N15">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O15">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P15">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q15">
-        <v>19.28172274591507</v>
+        <v>43.16933213491333</v>
       </c>
       <c r="R15">
-        <v>19.28172274591507</v>
+        <v>388.52398921422</v>
       </c>
       <c r="S15">
-        <v>0.001011902392096367</v>
+        <v>0.001611422592856987</v>
       </c>
       <c r="T15">
-        <v>0.001011902392096367</v>
+        <v>0.001780020460514024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H16">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I16">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J16">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N16">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O16">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P16">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q16">
-        <v>39.70447915579222</v>
+        <v>91.31654900223251</v>
       </c>
       <c r="R16">
-        <v>39.70447915579222</v>
+        <v>547.899294013395</v>
       </c>
       <c r="S16">
-        <v>0.002083686087810707</v>
+        <v>0.003408659409046588</v>
       </c>
       <c r="T16">
-        <v>0.002083686087810707</v>
+        <v>0.002510197518607526</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H17">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I17">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J17">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N17">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O17">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P17">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q17">
-        <v>116.6234084092929</v>
+        <v>191.3708477648364</v>
       </c>
       <c r="R17">
-        <v>116.6234084092929</v>
+        <v>1722.337629883528</v>
       </c>
       <c r="S17">
-        <v>0.006120381850672363</v>
+        <v>0.00714348108834998</v>
       </c>
       <c r="T17">
-        <v>0.006120381850672363</v>
+        <v>0.007890880116068011</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H18">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I18">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J18">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N18">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O18">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P18">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q18">
-        <v>327.5979186969303</v>
+        <v>445.4854629382892</v>
       </c>
       <c r="R18">
-        <v>327.5979186969303</v>
+        <v>4009.369166444602</v>
       </c>
       <c r="S18">
-        <v>0.01719229769785194</v>
+        <v>0.01662905827508824</v>
       </c>
       <c r="T18">
-        <v>0.01719229769785194</v>
+        <v>0.01836890217373544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H19">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I19">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J19">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N19">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O19">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P19">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q19">
-        <v>39.50518381342251</v>
+        <v>61.495867948056</v>
       </c>
       <c r="R19">
-        <v>39.50518381342251</v>
+        <v>553.462811532504</v>
       </c>
       <c r="S19">
-        <v>0.002073227093231485</v>
+        <v>0.002295514571991796</v>
       </c>
       <c r="T19">
-        <v>0.002073227093231485</v>
+        <v>0.002535686742674413</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H20">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I20">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J20">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N20">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O20">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P20">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q20">
-        <v>40.7916860955924</v>
+        <v>51.43137757669244</v>
       </c>
       <c r="R20">
-        <v>40.7916860955924</v>
+        <v>462.8823981902319</v>
       </c>
       <c r="S20">
-        <v>0.002140742571693645</v>
+        <v>0.001919827796960816</v>
       </c>
       <c r="T20">
-        <v>0.002140742571693645</v>
+        <v>0.002120693090938377</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H21">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I21">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J21">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N21">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O21">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P21">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q21">
-        <v>83.99730001590189</v>
+        <v>108.7933419043103</v>
       </c>
       <c r="R21">
-        <v>83.99730001590189</v>
+        <v>652.760051425862</v>
       </c>
       <c r="S21">
-        <v>0.004408167772961801</v>
+        <v>0.00406103222883164</v>
       </c>
       <c r="T21">
-        <v>0.004408167772961801</v>
+        <v>0.002990616485983756</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H22">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I22">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J22">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N22">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O22">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P22">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q22">
-        <v>449.7231421549087</v>
+        <v>981.5473585464491</v>
       </c>
       <c r="R22">
-        <v>449.7231421549087</v>
+        <v>5889.284151278694</v>
       </c>
       <c r="S22">
-        <v>0.02360141411244266</v>
+        <v>0.03663914893512218</v>
       </c>
       <c r="T22">
-        <v>0.02360141411244266</v>
+        <v>0.02698172205082817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H23">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I23">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J23">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N23">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O23">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P23">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q23">
-        <v>1263.282966681432</v>
+        <v>2284.909559240952</v>
       </c>
       <c r="R23">
-        <v>1263.282966681432</v>
+        <v>13709.45735544571</v>
       </c>
       <c r="S23">
-        <v>0.06629693169664286</v>
+        <v>0.08529098562120162</v>
       </c>
       <c r="T23">
-        <v>0.06629693169664286</v>
+        <v>0.06280980138341662</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H24">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I24">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J24">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N24">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O24">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P24">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q24">
-        <v>152.3398744583761</v>
+        <v>315.4143248615879</v>
       </c>
       <c r="R24">
-        <v>152.3398744583761</v>
+        <v>1892.485949169528</v>
       </c>
       <c r="S24">
-        <v>0.007994777510673894</v>
+        <v>0.01177376957336883</v>
       </c>
       <c r="T24">
-        <v>0.007994777510673894</v>
+        <v>0.008670413679140124</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H25">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I25">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J25">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N25">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O25">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P25">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q25">
-        <v>157.3008840585792</v>
+        <v>263.7932234529372</v>
       </c>
       <c r="R25">
-        <v>157.3008840585792</v>
+        <v>1582.759340717623</v>
       </c>
       <c r="S25">
-        <v>0.008255130672463966</v>
+        <v>0.009846859775040346</v>
       </c>
       <c r="T25">
-        <v>0.008255130672463966</v>
+        <v>0.007251402973198811</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H26">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I26">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J26">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N26">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O26">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P26">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q26">
-        <v>323.9103556560939</v>
+        <v>558.0046209798835</v>
       </c>
       <c r="R26">
-        <v>323.9103556560939</v>
+        <v>2232.018483919534</v>
       </c>
       <c r="S26">
-        <v>0.01699877485182829</v>
+        <v>0.02082916757561714</v>
       </c>
       <c r="T26">
-        <v>0.01699877485182829</v>
+        <v>0.01022598006794287</v>
       </c>
     </row>
   </sheetData>
